--- a/biology/Botanique/Rhynchanthus/Rhynchanthus.xlsx
+++ b/biology/Botanique/Rhynchanthus/Rhynchanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhynchanthus est un genre de plantes de la famille des Zingiberaceae originaire de Chine (pour une espèce), Indonésie, Birmanie et Papouasie-Nouvelle-Guinée.
 </t>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 juil. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 juil. 2010) :
 Rhynchanthus beesianus W.W.Sm. (1918)
 Rhynchanthus bluthianus Wittm. (1899)
 Rhynchanthus johnianus Schltr. (1907)
 Rhynchanthus longiflorus Hook.f. (1886)
-Selon NCBI  (21 juil. 2010)[2] :
+Selon NCBI  (21 juil. 2010) :
 Rhynchanthus beesianus</t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 oct. 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 oct. 2011) :
 Rhynchanthus papuanus Gilli, (1980 publ. 1983) = Alpinia acuminata R.M.Sm., (1990).
 Rhynchanthus radicalis Valeton, (1921) = Geocharis radicalis (Valeton) B.L.Burtt &amp; R.M.Sm., (1972).
 Rhynchanthus wiesemannianus Loes. &amp; Schlechter, (1921) = Unplaced Name
